--- a/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_Unif_diff_versionB_Abs_deltax_22-Dec-2023.xlsx
+++ b/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_Unif_diff_versionB_Abs_deltax_22-Dec-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\Endogeneity\MATLAB_codes\Results\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46E57C0E-AC0C-45F1-AD1F-C4B0528F6C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BDA76AE-67CC-41E0-9EB8-BFDAEEC16E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="1425" windowWidth="7500" windowHeight="7875" xr2:uid="{CC7B74B5-0E8F-469D-8506-AEAD10621DD1}"/>
   </bookViews>
@@ -38,9 +38,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Var1</t>
+    <t>Var1_1</t>
+  </si>
+  <si>
+    <t>Var1_2</t>
+  </si>
+  <si>
+    <t>Var1_3</t>
+  </si>
+  <si>
+    <t>Var1_4</t>
+  </si>
+  <si>
+    <t>Var1_5</t>
+  </si>
+  <si>
+    <t>Var1_6</t>
+  </si>
+  <si>
+    <t>Var1_7</t>
+  </si>
+  <si>
+    <t>Var1_8</t>
   </si>
 </sst>
 </file>
@@ -393,17 +414,1085 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B9FBE3-74C4-475F-96D8-229D9912B902}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4.2821782287500833E-3</v>
+      </c>
+      <c r="B2">
+        <v>2.0494776136252842E-2</v>
+      </c>
+      <c r="C2">
+        <v>-1.4822238815767599E-3</v>
+      </c>
+      <c r="D2">
+        <v>2.5510996507125444E-3</v>
+      </c>
+      <c r="E2">
+        <v>4.2821782287500829</v>
+      </c>
+      <c r="F2">
+        <v>20.494776136252842</v>
+      </c>
+      <c r="G2">
+        <v>-1.4822238815767599</v>
+      </c>
+      <c r="H2">
+        <v>2.5510996507125445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.14316751035724526</v>
+      </c>
+      <c r="B3">
+        <v>2.9787705086429819E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.0511920545497274E-2</v>
+      </c>
+      <c r="D3">
+        <v>3.5884773347364422E-3</v>
+      </c>
+      <c r="E3">
+        <v>4.2821782287500954</v>
+      </c>
+      <c r="F3">
+        <v>20.494776136252845</v>
+      </c>
+      <c r="G3">
+        <v>-1.4822238815767388</v>
+      </c>
+      <c r="H3">
+        <v>2.5510996507125436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4.2821782287500955E-3</v>
+      </c>
+      <c r="B4">
+        <v>2.0494776136252845E-2</v>
+      </c>
+      <c r="C4">
+        <v>-1.4822238815767389E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.5510996507125436E-3</v>
+      </c>
+      <c r="E4">
+        <v>4.2821782287501078</v>
+      </c>
+      <c r="F4">
+        <v>20.494776136252849</v>
+      </c>
+      <c r="G4">
+        <v>-1.4822238815767039</v>
+      </c>
+      <c r="H4">
+        <v>2.5510996507125463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.14316751035724526</v>
+      </c>
+      <c r="B5">
+        <v>2.9787705086429823E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.0511920545497246E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.5884773347364405E-3</v>
+      </c>
+      <c r="E5">
+        <v>4.2821782287500909</v>
+      </c>
+      <c r="F5">
+        <v>20.494776136252852</v>
+      </c>
+      <c r="G5">
+        <v>-1.4822238815766622</v>
+      </c>
+      <c r="H5">
+        <v>2.551099650712545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4.2821782287501076E-3</v>
+      </c>
+      <c r="B6">
+        <v>2.0494776136252849E-2</v>
+      </c>
+      <c r="C6">
+        <v>-1.482223881576704E-3</v>
+      </c>
+      <c r="D6">
+        <v>2.5510996507125462E-3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.14316751035724529</v>
+      </c>
+      <c r="B7">
+        <v>2.9787705086429816E-2</v>
+      </c>
+      <c r="C7">
+        <v>5.0511920545497246E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.5884773347364426E-3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.2821782287500911E-3</v>
+      </c>
+      <c r="B8">
+        <v>2.0494776136252852E-2</v>
+      </c>
+      <c r="C8">
+        <v>-1.4822238815766621E-3</v>
+      </c>
+      <c r="D8">
+        <v>2.5510996507125449E-3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.14316751035724531</v>
+      </c>
+      <c r="B9">
+        <v>2.9787705086429816E-2</v>
+      </c>
+      <c r="C9">
+        <v>5.051192054549726E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.588477334736437E-3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-3.4103263325692625E-3</v>
+      </c>
+      <c r="B10">
+        <v>4.2152343246384888E-3</v>
+      </c>
+      <c r="C10">
+        <v>6.22754095145517E-4</v>
+      </c>
+      <c r="D10">
+        <v>2.3678747622136239E-4</v>
+      </c>
+      <c r="E10">
+        <v>-3.4103263325692623</v>
+      </c>
+      <c r="F10">
+        <v>4.2152343246384891</v>
+      </c>
+      <c r="G10">
+        <v>0.62275409514551705</v>
+      </c>
+      <c r="H10">
+        <v>0.2367874762213624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6.4867648413940729E-2</v>
+      </c>
+      <c r="B11">
+        <v>6.4357265660842759E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.5382987026198457E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.4105658648463647E-4</v>
+      </c>
+      <c r="E11">
+        <v>-3.4103263325692406</v>
+      </c>
+      <c r="F11">
+        <v>4.2152343246384998</v>
+      </c>
+      <c r="G11">
+        <v>0.62275409514550073</v>
+      </c>
+      <c r="H11">
+        <v>0.23678747622136237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-3.4103263325692404E-3</v>
+      </c>
+      <c r="B12">
+        <v>4.2152343246385001E-3</v>
+      </c>
+      <c r="C12">
+        <v>6.2275409514550074E-4</v>
+      </c>
+      <c r="D12">
+        <v>2.3678747622136236E-4</v>
+      </c>
+      <c r="E12">
+        <v>-3.4103263325692708</v>
+      </c>
+      <c r="F12">
+        <v>4.2152343246384945</v>
+      </c>
+      <c r="G12">
+        <v>0.62275409514547897</v>
+      </c>
+      <c r="H12">
+        <v>0.23678747622136229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6.486764841394084E-2</v>
+      </c>
+      <c r="B13">
+        <v>6.4357265660842742E-3</v>
+      </c>
+      <c r="C13">
+        <v>1.5382987026198456E-2</v>
+      </c>
+      <c r="D13">
+        <v>3.4105658648463468E-4</v>
+      </c>
+      <c r="E13">
+        <v>-3.4103263325692712</v>
+      </c>
+      <c r="F13">
+        <v>4.21523432463849</v>
+      </c>
+      <c r="G13">
+        <v>0.62275409514559565</v>
+      </c>
+      <c r="H13">
+        <v>0.2367874762213642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-3.4103263325692707E-3</v>
+      </c>
+      <c r="B14">
+        <v>4.215234324638494E-3</v>
+      </c>
+      <c r="C14">
+        <v>6.2275409514547895E-4</v>
+      </c>
+      <c r="D14">
+        <v>2.3678747622136228E-4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6.4867648413940743E-2</v>
+      </c>
+      <c r="B15">
+        <v>6.435726566084269E-3</v>
+      </c>
+      <c r="C15">
+        <v>1.5382987026198476E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.4105658648463859E-4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-3.4103263325692711E-3</v>
+      </c>
+      <c r="B16">
+        <v>4.2152343246384897E-3</v>
+      </c>
+      <c r="C16">
+        <v>6.2275409514559561E-4</v>
+      </c>
+      <c r="D16">
+        <v>2.367874762213642E-4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6.4867648413940743E-2</v>
+      </c>
+      <c r="B17">
+        <v>6.435726566084249E-3</v>
+      </c>
+      <c r="C17">
+        <v>1.538298702619852E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.4105658648463826E-4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-1.0587895828145854E-4</v>
+      </c>
+      <c r="B18">
+        <v>2.1565133323023095E-3</v>
+      </c>
+      <c r="C18">
+        <v>-6.0088440363499753E-5</v>
+      </c>
+      <c r="D18">
+        <v>2.8668633491981786E-5</v>
+      </c>
+      <c r="E18">
+        <v>-0.10587895828145855</v>
+      </c>
+      <c r="F18">
+        <v>2.1565133323023096</v>
+      </c>
+      <c r="G18">
+        <v>-6.0088440363499751E-2</v>
+      </c>
+      <c r="H18">
+        <v>2.8668633491981788E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4.6461390236746357E-2</v>
+      </c>
+      <c r="B19">
+        <v>2.9735670947838113E-3</v>
+      </c>
+      <c r="C19">
+        <v>5.3566516209199539E-3</v>
+      </c>
+      <c r="D19">
+        <v>4.1678261173862962E-5</v>
+      </c>
+      <c r="E19">
+        <v>-0.10587895828193228</v>
+      </c>
+      <c r="F19">
+        <v>2.1565133323023016</v>
+      </c>
+      <c r="G19">
+        <v>-6.0088440364307438E-2</v>
+      </c>
+      <c r="H19">
+        <v>2.8668633491983033E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1.0587895828193227E-4</v>
+      </c>
+      <c r="B20">
+        <v>2.1565133323023017E-3</v>
+      </c>
+      <c r="C20">
+        <v>-6.0088440364307436E-5</v>
+      </c>
+      <c r="D20">
+        <v>2.8668633491983033E-5</v>
+      </c>
+      <c r="E20">
+        <v>-0.10587895828253524</v>
+      </c>
+      <c r="F20">
+        <v>2.1565133323023038</v>
+      </c>
+      <c r="G20">
+        <v>-6.0088440365391182E-2</v>
+      </c>
+      <c r="H20">
+        <v>2.8668633491983078E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.6461390236746322E-2</v>
+      </c>
+      <c r="B21">
+        <v>2.9735670947838252E-3</v>
+      </c>
+      <c r="C21">
+        <v>5.356651620920065E-3</v>
+      </c>
+      <c r="D21">
+        <v>4.1678261173864568E-5</v>
+      </c>
+      <c r="E21">
+        <v>-0.10587895828318628</v>
+      </c>
+      <c r="F21">
+        <v>2.1565133323022869</v>
+      </c>
+      <c r="G21">
+        <v>-6.0088440366634188E-2</v>
+      </c>
+      <c r="H21">
+        <v>2.866863349198432E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1.0587895828253524E-4</v>
+      </c>
+      <c r="B22">
+        <v>2.1565133323023038E-3</v>
+      </c>
+      <c r="C22">
+        <v>-6.0088440365391184E-5</v>
+      </c>
+      <c r="D22">
+        <v>2.8668633491983077E-5</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4.646139023674635E-2</v>
+      </c>
+      <c r="B23">
+        <v>2.9735670947837992E-3</v>
+      </c>
+      <c r="C23">
+        <v>5.3566516209200546E-3</v>
+      </c>
+      <c r="D23">
+        <v>4.1678261173865415E-5</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-1.0587895828318627E-4</v>
+      </c>
+      <c r="B24">
+        <v>2.1565133323022869E-3</v>
+      </c>
+      <c r="C24">
+        <v>-6.0088440366634188E-5</v>
+      </c>
+      <c r="D24">
+        <v>2.8668633491984321E-5</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4.6461390236746156E-2</v>
+      </c>
+      <c r="B25">
+        <v>2.9735670947837866E-3</v>
+      </c>
+      <c r="C25">
+        <v>5.3566516209201595E-3</v>
+      </c>
+      <c r="D25">
+        <v>4.1678261173868803E-5</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1.3495732424324638E-3</v>
+      </c>
+      <c r="B26">
+        <v>4.2044435285261812E-4</v>
+      </c>
+      <c r="C26">
+        <v>2.5554839986245416E-5</v>
+      </c>
+      <c r="D26">
+        <v>9.0372039719156455E-7</v>
+      </c>
+      <c r="E26">
+        <v>-1.3495732424324638</v>
+      </c>
+      <c r="F26">
+        <v>0.42044435285261811</v>
+      </c>
+      <c r="G26">
+        <v>2.5554839986245415E-2</v>
+      </c>
+      <c r="H26">
+        <v>9.0372039719156458E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2.0470516528971368E-2</v>
+      </c>
+      <c r="B27">
+        <v>5.9090967251426219E-4</v>
+      </c>
+      <c r="C27">
+        <v>9.5077406288955244E-4</v>
+      </c>
+      <c r="D27">
+        <v>1.2441626336829404E-6</v>
+      </c>
+      <c r="E27">
+        <v>-1.3495732424322615</v>
+      </c>
+      <c r="F27">
+        <v>0.42044435285260801</v>
+      </c>
+      <c r="G27">
+        <v>2.5554839986180022E-2</v>
+      </c>
+      <c r="H27">
+        <v>9.0372039719183476E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-1.3495732424322615E-3</v>
+      </c>
+      <c r="B28">
+        <v>4.2044435285260799E-4</v>
+      </c>
+      <c r="C28">
+        <v>2.5554839986180021E-5</v>
+      </c>
+      <c r="D28">
+        <v>9.0372039719183476E-7</v>
+      </c>
+      <c r="E28">
+        <v>-1.3495732424319666</v>
+      </c>
+      <c r="F28">
+        <v>0.42044435285260584</v>
+      </c>
+      <c r="G28">
+        <v>2.5554839986011935E-2</v>
+      </c>
+      <c r="H28">
+        <v>9.0372039719173599E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2.047051652897116E-2</v>
+      </c>
+      <c r="B29">
+        <v>5.9090967251425764E-4</v>
+      </c>
+      <c r="C29">
+        <v>9.5077406288969566E-4</v>
+      </c>
+      <c r="D29">
+        <v>1.2441626336837264E-6</v>
+      </c>
+      <c r="E29">
+        <v>-1.3495732424320688</v>
+      </c>
+      <c r="F29">
+        <v>0.42044435285260501</v>
+      </c>
+      <c r="G29">
+        <v>2.5554839986048572E-2</v>
+      </c>
+      <c r="H29">
+        <v>9.037203971915674E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1.3495732424319666E-3</v>
+      </c>
+      <c r="B30">
+        <v>4.2044435285260582E-4</v>
+      </c>
+      <c r="C30">
+        <v>2.5554839986011936E-5</v>
+      </c>
+      <c r="D30">
+        <v>9.0372039719173597E-7</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2.0470516528971135E-2</v>
+      </c>
+      <c r="B31">
+        <v>5.9090967251427325E-4</v>
+      </c>
+      <c r="C31">
+        <v>9.5077406288964828E-4</v>
+      </c>
+      <c r="D31">
+        <v>1.2441626336836148E-6</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-1.3495732424320687E-3</v>
+      </c>
+      <c r="B32">
+        <v>4.2044435285260501E-4</v>
+      </c>
+      <c r="C32">
+        <v>2.5554839986048572E-5</v>
+      </c>
+      <c r="D32">
+        <v>9.0372039719156741E-7</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2.0470516528971104E-2</v>
+      </c>
+      <c r="B33">
+        <v>5.9090967251429092E-4</v>
+      </c>
+      <c r="C33">
+        <v>9.5077406288955905E-4</v>
+      </c>
+      <c r="D33">
+        <v>1.2441626336828699E-6</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-1.4299959116379301E-4</v>
+      </c>
+      <c r="B34">
+        <v>2.1167841624852705E-4</v>
+      </c>
+      <c r="C34">
+        <v>-1.1852653803097024E-5</v>
+      </c>
+      <c r="D34">
+        <v>2.5575828651457716E-7</v>
+      </c>
+      <c r="E34">
+        <v>-0.14299959116379302</v>
+      </c>
+      <c r="F34">
+        <v>0.21167841624852704</v>
+      </c>
+      <c r="G34">
+        <v>-1.1852653803097024E-2</v>
+      </c>
+      <c r="H34">
+        <v>2.5575828651457717E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.455574928345005E-2</v>
+      </c>
+      <c r="B35">
+        <v>2.8691760648000394E-4</v>
+      </c>
+      <c r="C35">
+        <v>5.0583957416080896E-4</v>
+      </c>
+      <c r="D35">
+        <v>3.6894394074525301E-7</v>
+      </c>
+      <c r="E35">
+        <v>-0.1429995911638402</v>
+      </c>
+      <c r="F35">
+        <v>0.21167841624854733</v>
+      </c>
+      <c r="G35">
+        <v>-1.1852653803514968E-2</v>
+      </c>
+      <c r="H35">
+        <v>2.5575828651506159E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-1.429995911638402E-4</v>
+      </c>
+      <c r="B36">
+        <v>2.1167841624854732E-4</v>
+      </c>
+      <c r="C36">
+        <v>-1.1852653803514968E-5</v>
+      </c>
+      <c r="D36">
+        <v>2.5575828651506161E-7</v>
+      </c>
+      <c r="E36">
+        <v>-0.14299959116463623</v>
+      </c>
+      <c r="F36">
+        <v>0.21167841624852435</v>
+      </c>
+      <c r="G36">
+        <v>-1.1852653804367397E-2</v>
+      </c>
+      <c r="H36">
+        <v>2.5575828651458417E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1.4555749283450731E-2</v>
+      </c>
+      <c r="B37">
+        <v>2.8691760648004292E-4</v>
+      </c>
+      <c r="C37">
+        <v>5.0583957416127777E-4</v>
+      </c>
+      <c r="D37">
+        <v>3.6894394074599739E-7</v>
+      </c>
+      <c r="E37">
+        <v>-0.14299959116564787</v>
+      </c>
+      <c r="F37">
+        <v>0.2116784162485518</v>
+      </c>
+      <c r="G37">
+        <v>-1.1852653804893976E-2</v>
+      </c>
+      <c r="H37">
+        <v>2.5575828651505628E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-1.4299959116463622E-4</v>
+      </c>
+      <c r="B38">
+        <v>2.1167841624852434E-4</v>
+      </c>
+      <c r="C38">
+        <v>-1.1852653804367397E-5</v>
+      </c>
+      <c r="D38">
+        <v>2.5575828651458415E-7</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1.4555749283449953E-2</v>
+      </c>
+      <c r="B39">
+        <v>2.8691760648001354E-4</v>
+      </c>
+      <c r="C39">
+        <v>5.0583957416078587E-4</v>
+      </c>
+      <c r="D39">
+        <v>3.6894394074594514E-7</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-1.4299959116564786E-4</v>
+      </c>
+      <c r="B40">
+        <v>2.116784162485518E-4</v>
+      </c>
+      <c r="C40">
+        <v>-1.1852653804893975E-5</v>
+      </c>
+      <c r="D40">
+        <v>2.5575828651505626E-7</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1.4555749283450888E-2</v>
+      </c>
+      <c r="B41">
+        <v>2.8691760648002595E-4</v>
+      </c>
+      <c r="C41">
+        <v>5.0583957416124069E-4</v>
+      </c>
+      <c r="D41">
+        <v>3.6894394074561443E-7</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>0</v>
       </c>
     </row>
